--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>0.02426948782029387</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.519771210003445</v>
+        <v>-2.535121425607214</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07542512839223761</v>
+        <v>-0.08175735696250863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2039477735626874</v>
+        <v>0.2095309974623222</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04847374699314431</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.723610714047345</v>
+        <v>-2.74306001466634</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1238330228463155</v>
+        <v>-0.1280890630313144</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2576687830195821</v>
+        <v>0.2629745977819443</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07486419298956544</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.018397343697993</v>
+        <v>-3.039098635554942</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2250260359310156</v>
+        <v>-0.2349879440552857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.270350760737215</v>
+        <v>0.2756244544415772</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1000085711728923</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.23712641817298</v>
+        <v>-3.261049306142519</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3125033572497194</v>
+        <v>-0.322968981965353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2828735932129389</v>
+        <v>0.291395893919573</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1243498617114454</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.287195847354512</v>
+        <v>-3.309212642541369</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3661995458890686</v>
+        <v>-0.3751978222733389</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3140383197133851</v>
+        <v>0.3222496301766556</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1480804113556301</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.069145695241797</v>
+        <v>-3.094232971563836</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4309190976147785</v>
+        <v>-0.4454115349651382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3134937217754761</v>
+        <v>0.3216626908441103</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1746933645807814</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.712479307402257</v>
+        <v>-2.737932325771068</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5375829108961135</v>
+        <v>-0.5496414480789285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2942970094762086</v>
+        <v>0.2994305385638436</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2099227728701093</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.284055206014781</v>
+        <v>-2.310744885116592</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5392137846136585</v>
+        <v>-0.5490340680731104</v>
       </c>
       <c r="G9" t="n">
-        <v>0.292610653931209</v>
+        <v>0.2952942223222992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.262358962071332</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.904553666033428</v>
+        <v>-1.928142202990149</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6167992801164559</v>
+        <v>-0.6308902042418157</v>
       </c>
       <c r="G10" t="n">
-        <v>0.307066590079296</v>
+        <v>0.310058228617568</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3437615890262313</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.398089994186883</v>
+        <v>-1.418241577937604</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7547913452844188</v>
+        <v>-0.7702795354327783</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3178110839802932</v>
+        <v>0.3201354805410198</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4623845122193278</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.852783932953847</v>
+        <v>-0.8810125027434759</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9169048649622844</v>
+        <v>-0.9299576948950081</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3644669207252806</v>
+        <v>0.365229065828735</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6181777110203627</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3516706073364362</v>
+        <v>-0.3848618805870636</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.225656854602474</v>
+        <v>-1.24581427854556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3961616446827267</v>
+        <v>0.3976246128698172</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.8066088689839703</v>
       </c>
       <c r="E14" t="n">
-        <v>0.250041491792675</v>
+        <v>0.2189395473601379</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.658095358215903</v>
+        <v>-1.677029261858808</v>
       </c>
       <c r="G14" t="n">
-        <v>0.495751524963609</v>
+        <v>0.4971458708904268</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.01623065253941</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8684623812741453</v>
+        <v>0.836612892219063</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.060016666657205</v>
+        <v>-2.078530076449927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5773696732934962</v>
+        <v>0.5747445068260424</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.230596459238107</v>
       </c>
       <c r="E16" t="n">
-        <v>1.352358819803561</v>
+        <v>1.31596420104148</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.453507657421599</v>
+        <v>-2.474819979404594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6957372320715554</v>
+        <v>0.6903744754336477</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.442341863415046</v>
       </c>
       <c r="E17" t="n">
-        <v>1.897791905220505</v>
+        <v>1.867218498196877</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.81109095546223</v>
+        <v>-2.832089367105679</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8096589444127975</v>
+        <v>0.8064745795265256</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.65760234419066</v>
       </c>
       <c r="E18" t="n">
-        <v>2.306987903274759</v>
+        <v>2.280009134650948</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.147548087651458</v>
+        <v>-3.165051874189317</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9415874298592166</v>
+        <v>0.9355180099453091</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.882985890512393</v>
       </c>
       <c r="E19" t="n">
-        <v>2.755339471031002</v>
+        <v>2.730550774543554</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.418692158566022</v>
+        <v>-3.434859271076654</v>
       </c>
       <c r="G19" t="n">
-        <v>1.115514198640625</v>
+        <v>1.108345362514263</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.115375866685812</v>
       </c>
       <c r="E20" t="n">
-        <v>3.069076064853554</v>
+        <v>3.05110579295065</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.687806032610177</v>
+        <v>-3.703036524270491</v>
       </c>
       <c r="G20" t="n">
-        <v>1.254961931755223</v>
+        <v>1.246060018544953</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.346982265763135</v>
       </c>
       <c r="E21" t="n">
-        <v>3.405443404085192</v>
+        <v>3.386322614286651</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.910523958469526</v>
+        <v>-3.927594110724385</v>
       </c>
       <c r="G21" t="n">
-        <v>1.374348604100737</v>
+        <v>1.365814623009375</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.564860146833024</v>
       </c>
       <c r="E22" t="n">
-        <v>3.722684113325924</v>
+        <v>3.704500674401747</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.075491872165118</v>
+        <v>-4.093437323250477</v>
       </c>
       <c r="G22" t="n">
-        <v>1.441321010030719</v>
+        <v>1.430212964155085</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.756158174623558</v>
       </c>
       <c r="E23" t="n">
-        <v>3.926298039939779</v>
+        <v>3.913553280154237</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.183910663251726</v>
+        <v>-4.19736646645754</v>
       </c>
       <c r="G23" t="n">
-        <v>1.527271121046332</v>
+        <v>1.519965040399425</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.913082021428156</v>
       </c>
       <c r="E24" t="n">
-        <v>4.085446201945008</v>
+        <v>4.069540438042649</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.243821546590027</v>
+        <v>-4.251721136785889</v>
       </c>
       <c r="G24" t="n">
-        <v>1.577819446001682</v>
+        <v>1.569613975730775</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.030343770538779</v>
       </c>
       <c r="E25" t="n">
-        <v>4.186046435504799</v>
+        <v>4.172184738929713</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.272796200954111</v>
+        <v>-4.27623315416011</v>
       </c>
       <c r="G25" t="n">
-        <v>1.592415546766496</v>
+        <v>1.583885945819408</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.102905308653412</v>
       </c>
       <c r="E26" t="n">
-        <v>4.214385968949338</v>
+        <v>4.200611875259705</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.181664379263863</v>
+        <v>-4.179967073358181</v>
       </c>
       <c r="G26" t="n">
-        <v>1.544136136544418</v>
+        <v>1.531623524405331</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.129555745221207</v>
       </c>
       <c r="E27" t="n">
-        <v>4.17020491371844</v>
+        <v>4.152494530375718</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.109354037513518</v>
+        <v>-4.104945422303019</v>
       </c>
       <c r="G27" t="n">
-        <v>1.518842263417516</v>
+        <v>1.509281868518246</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.114962742418971</v>
       </c>
       <c r="E28" t="n">
-        <v>4.123353430529272</v>
+        <v>4.106960010564548</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.940306749451927</v>
+        <v>-3.935402447914565</v>
       </c>
       <c r="G28" t="n">
-        <v>1.426167170895177</v>
+        <v>1.411578370370818</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.06415874365434</v>
       </c>
       <c r="E29" t="n">
-        <v>3.968564972123495</v>
+        <v>3.949705530933227</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.769641728105609</v>
+        <v>-3.764963003998292</v>
       </c>
       <c r="G29" t="n">
-        <v>1.322638080865023</v>
+        <v>1.308947209916572</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.980718793378886</v>
       </c>
       <c r="E30" t="n">
-        <v>3.867336917884613</v>
+        <v>3.846277184221346</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.605686357761062</v>
+        <v>-3.601790949454518</v>
       </c>
       <c r="G30" t="n">
-        <v>1.230805436091139</v>
+        <v>1.216131952777507</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.872625161487655</v>
       </c>
       <c r="E31" t="n">
-        <v>3.711816975385291</v>
+        <v>3.694164993966205</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.455775190002966</v>
+        <v>-3.447795297162105</v>
       </c>
       <c r="G31" t="n">
-        <v>1.13186381716262</v>
+        <v>1.116029595616715</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.746210587112826</v>
       </c>
       <c r="E32" t="n">
-        <v>3.553505420936152</v>
+        <v>3.538588109591338</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.261223051865337</v>
+        <v>-3.246532777998659</v>
       </c>
       <c r="G32" t="n">
-        <v>1.015909717878833</v>
+        <v>0.9998491888788373</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.60588484334014</v>
       </c>
       <c r="E33" t="n">
-        <v>3.373120859448655</v>
+        <v>3.357023829246386</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.117235299212057</v>
+        <v>-3.10014397625988</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9640415094493014</v>
+        <v>0.9507404713411232</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.459336351200462</v>
       </c>
       <c r="E34" t="n">
-        <v>3.183310227486251</v>
+        <v>3.172056176801527</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.103321040905697</v>
+        <v>-3.089954300633428</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8686069260351452</v>
+        <v>0.8561527158196941</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.312249357505808</v>
       </c>
       <c r="E35" t="n">
-        <v>2.888771806011057</v>
+        <v>2.884048550436968</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.98557473259032</v>
+        <v>-2.973364350406051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8209348958188853</v>
+        <v>0.8074498916512526</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.167815082260866</v>
       </c>
       <c r="E36" t="n">
-        <v>2.598229536160681</v>
+        <v>2.591333729027319</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.928892745605062</v>
+        <v>-2.915397521100793</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7567847628486298</v>
+        <v>0.7452226420167238</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.028476915719013</v>
       </c>
       <c r="E37" t="n">
-        <v>2.334115596803843</v>
+        <v>2.325200543160754</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.864445492848307</v>
+        <v>-2.852759267928674</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7113801873175511</v>
+        <v>0.7034579663762806</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.896873260292614</v>
       </c>
       <c r="E38" t="n">
-        <v>2.025330026057562</v>
+        <v>2.01494762408311</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.789836305378827</v>
+        <v>-2.778193881901921</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6346575802364808</v>
+        <v>0.6264754707350285</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.772154835820068</v>
       </c>
       <c r="E39" t="n">
-        <v>1.739449689761457</v>
+        <v>1.732149449306913</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.664799246921497</v>
+        <v>-2.649324927230001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6119260915091232</v>
+        <v>0.6046010302370344</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.651857403911173</v>
       </c>
       <c r="E40" t="n">
-        <v>1.50467687683952</v>
+        <v>1.502453223597066</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.547205513631619</v>
+        <v>-2.531443564466215</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5379308542618704</v>
+        <v>0.5306802554424178</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.537298845751813</v>
       </c>
       <c r="E41" t="n">
-        <v>1.256064268063859</v>
+        <v>1.250097051516315</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.432801985420377</v>
+        <v>-2.417376577339927</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4759167716486143</v>
+        <v>0.4684690663368891</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.427879454595168</v>
       </c>
       <c r="E42" t="n">
-        <v>1.042562895778371</v>
+        <v>1.037524269816645</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.313405822762273</v>
+        <v>-2.296294789160869</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4082581431159052</v>
+        <v>0.4038049964386337</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.320900352539716</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8397096542198803</v>
+        <v>0.8359295897125176</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.21024758494721</v>
+        <v>-2.195994595483759</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3539516543745562</v>
+        <v>0.3501380087611027</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.217494010743337</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6772150619902876</v>
+        <v>0.6742905856641974</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.147892581104727</v>
+        <v>-2.132172973333958</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2636520600961259</v>
+        <v>0.2584367683154</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.117778010366405</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4988395266758809</v>
+        <v>0.4952390480837001</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.04074403185721</v>
+        <v>-2.023762942535896</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2329691494656796</v>
+        <v>0.2267201436365903</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.021094529654194</v>
       </c>
       <c r="E46" t="n">
-        <v>0.328400812783654</v>
+        <v>0.3238250220667461</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.968295715562275</v>
+        <v>-1.95152998333437</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2062999110371413</v>
+        <v>0.1985339152415979</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9280355382769179</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1545908478495188</v>
+        <v>0.1517598146012469</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.907337977742791</v>
+        <v>-1.887825895055887</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1384748370220686</v>
+        <v>0.1318447586412522</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8400621407287743</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03174824167282453</v>
+        <v>0.03165479859500637</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.858180348594032</v>
+        <v>-1.840766355013764</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1246292009759814</v>
+        <v>0.1182444106744377</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7577053750627868</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1023615556214122</v>
+        <v>-0.1029587152905938</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.783377704752506</v>
+        <v>-1.762661082390603</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07292013778835893</v>
+        <v>0.06535854872554277</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6799423190249794</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2061607545483843</v>
+        <v>-0.2062118562315661</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.761478443436967</v>
+        <v>-1.740078518568518</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03632111229355057</v>
+        <v>0.02750534192064385</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6083670096721936</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3175054820091726</v>
+        <v>-0.3137516983674463</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.707894678500617</v>
+        <v>-1.685008424675624</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03313090721491507</v>
+        <v>0.02255431884437245</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5428249892306287</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3732340575910667</v>
+        <v>-0.3709301017036128</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.702796190567164</v>
+        <v>-1.680085142513079</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02966576117506807</v>
+        <v>-0.03813550015042944</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4822879882506556</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4752505377990393</v>
+        <v>-0.4761732881924937</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.696050768387166</v>
+        <v>-1.6729192264829</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03188795436943111</v>
+        <v>-0.03951232550015634</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4275779745105133</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.512595647868302</v>
+        <v>-0.5187439103791186</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.68320234518717</v>
+        <v>-1.661365865939539</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06747516653723974</v>
+        <v>-0.07506449651378316</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3785743970453508</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6367479171825414</v>
+        <v>-0.6436846056624487</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.664659734432629</v>
+        <v>-1.646017840407907</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09085053647268801</v>
+        <v>-0.09695353749268637</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3353088762450379</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7195297238408829</v>
+        <v>-0.7256692260631539</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.629498856307366</v>
+        <v>-1.612743344416097</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1120372943198641</v>
+        <v>-0.1199741157420438</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2970976663868903</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8486665973374845</v>
+        <v>-0.8569465300610277</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.667830958886083</v>
+        <v>-1.649891347993087</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1126461343737731</v>
+        <v>-0.1216283502290434</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2646878537241066</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9205126437949198</v>
+        <v>-0.9285443683430086</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.641498991566544</v>
+        <v>-1.627025534841366</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1542633451570346</v>
+        <v>-0.1608102007966692</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2376448318787951</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.037177786498979</v>
+        <v>-1.04342825237616</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.652392410372814</v>
+        <v>-1.636987442965637</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1770882769622103</v>
+        <v>-0.1851857036743899</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2150206009751796</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.076748009858787</v>
+        <v>-1.085660143405694</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.649866527175542</v>
+        <v>-1.63257371758682</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1892679981365707</v>
+        <v>-0.1971201367694776</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1973548916616545</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.160172237677128</v>
+        <v>-1.169608528488671</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.695066695973894</v>
+        <v>-1.680482275593807</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2485693113969184</v>
+        <v>-0.2579442801886431</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.18418244855874</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.213136942222932</v>
+        <v>-1.220832855710112</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.698839460240802</v>
+        <v>-1.684116335292078</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2944615429903606</v>
+        <v>-0.3019019480616313</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.175056507906962</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.281690580235368</v>
+        <v>-1.284493872569913</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.746245761704516</v>
+        <v>-1.731343050840611</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3129194709556284</v>
+        <v>-0.3205423820382627</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1696051566795068</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.350396063249259</v>
+        <v>-1.350883719311622</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.778153652683235</v>
+        <v>-1.761154312760785</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3598702374149794</v>
+        <v>-0.3671076958016138</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.167741289419768</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.367872838897436</v>
+        <v>-1.367351601728982</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.864684132814984</v>
+        <v>-1.847398623466716</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3564303641127985</v>
+        <v>-0.3633174109576148</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.168667337036134</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.394328910304702</v>
+        <v>-1.392668835625338</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.977348013725909</v>
+        <v>-1.962304408221231</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3868475459906994</v>
+        <v>-0.3932118956189705</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1714800636307868</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.436607522873145</v>
+        <v>-1.433142828753418</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.050867275295525</v>
+        <v>-2.033148861688303</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3590861915901614</v>
+        <v>-0.3668375869047957</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1753990660987195</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.465241986032046</v>
+        <v>-1.461517403352138</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.164957623191267</v>
+        <v>-2.148310154858726</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4253446340036891</v>
+        <v>-0.4354583871294136</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1792747052136494</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.461299856186593</v>
+        <v>-1.456883210711594</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.313164184803228</v>
+        <v>-2.296264858175005</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4453954744361383</v>
+        <v>-0.4568860529115897</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1821672290552058</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.485377509253768</v>
+        <v>-1.484913213960859</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.438694739515285</v>
+        <v>-2.425617818789061</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4597097859194071</v>
+        <v>-0.4707681901599496</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1838824588497953</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.523439502935667</v>
+        <v>-1.522909505478667</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.605145332047195</v>
+        <v>-2.59732823456847</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5203309826539363</v>
+        <v>-0.530922171505388</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1846157671749537</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.530371811271301</v>
+        <v>-1.532166210375028</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.702560470696668</v>
+        <v>-2.695913601762807</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5392123245655677</v>
+        <v>-0.5502926295274737</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1849044764973073</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.514601831841397</v>
+        <v>-1.516911627921214</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.825190639876136</v>
+        <v>-2.821905531671591</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.548209140901747</v>
+        <v>-0.563736752348561</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1852224952158877</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.569379916116109</v>
+        <v>-1.572629983166472</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.961703676328008</v>
+        <v>-2.961881802195099</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.559226663795744</v>
+        <v>-0.5754025365949216</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.1861945217347594</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.445817506230597</v>
+        <v>-1.450962715702959</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.023648406656946</v>
+        <v>-3.026483820049491</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.59435980100728</v>
+        <v>-0.6106174364995485</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.1879510495382075</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.34144888854817</v>
+        <v>-1.347575250337623</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.084394437503248</v>
+        <v>-3.090035333302473</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5859192629937369</v>
+        <v>-0.6011431844376419</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1903449413260934</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.230088100558382</v>
+        <v>-1.236386748022562</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.160540325588409</v>
+        <v>-3.169475819904771</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5594704918269258</v>
+        <v>-0.5776670711839209</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1933326073177435</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.094321148680964</v>
+        <v>-1.103716558145962</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.221277596146165</v>
+        <v>-3.232319939857708</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5698660342341958</v>
+        <v>-0.590108140966554</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1970656886402799</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8940288314739269</v>
+        <v>-0.9033380981015607</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.287084883699602</v>
+        <v>-3.2982068000321</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5689958455720142</v>
+        <v>-0.5874318728159184</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2011403912289544</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6817100981420748</v>
+        <v>-0.6953732281767984</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.325436696927547</v>
+        <v>-3.341808216170906</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5317470986767514</v>
+        <v>-0.5526433069538368</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2062595827583616</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4303964003982332</v>
+        <v>-0.4410839524236849</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.371701240784171</v>
+        <v>-3.391402399698847</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.493742046870398</v>
+        <v>-0.5137855870623926</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2131360877158045</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.16116499248276</v>
+        <v>-0.1795630584763006</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.315500339644867</v>
+        <v>-3.339016604221089</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4560742661730445</v>
+        <v>-0.472457465801131</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.222338768586719</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1248949297285268</v>
+        <v>0.1116844146019849</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.309412669129824</v>
+        <v>-3.337351419373407</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4372703068102313</v>
+        <v>-0.453043206336318</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2339153815150755</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4498782739953486</v>
+        <v>0.4362808461247159</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.260714225105655</v>
+        <v>-3.285905894866194</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3899063467411532</v>
+        <v>-0.4057274278542398</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2478678280559092</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7294424422501826</v>
+        <v>0.7198557664852762</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.174356760672678</v>
+        <v>-3.208297038593942</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3474306276804373</v>
+        <v>-0.3634123140835239</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2630380916098233</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9876869882815679</v>
+        <v>0.9780696515067523</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.087778828977974</v>
+        <v>-3.12491953231451</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2712803594510032</v>
+        <v>-0.2865466222895445</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2783964700880026</v>
       </c>
       <c r="E87" t="n">
-        <v>1.178081639480335</v>
+        <v>1.169000140354883</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.96910539012487</v>
+        <v>-3.010497023478086</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2361253215181035</v>
+        <v>-0.251406184837554</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.292093929705411</v>
       </c>
       <c r="E88" t="n">
-        <v>1.344039465781563</v>
+        <v>1.338647508181837</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.733836890876069</v>
+        <v>-2.777914282692512</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2338885278428314</v>
+        <v>-0.2493080957309182</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3016228491541241</v>
       </c>
       <c r="E89" t="n">
-        <v>1.485182314729707</v>
+        <v>1.478834025630436</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.499094738964041</v>
+        <v>-2.542232589833984</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1620045201350325</v>
+        <v>-0.1771218580683012</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3039650636473811</v>
       </c>
       <c r="E90" t="n">
-        <v>1.606493330459038</v>
+        <v>1.606386746948402</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.217492343574299</v>
+        <v>-2.258307257931606</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1580696905300336</v>
+        <v>-0.1680228383657582</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2961614605658465</v>
       </c>
       <c r="E91" t="n">
-        <v>1.650611603622026</v>
+        <v>1.647395117677754</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.929467196632649</v>
+        <v>-1.968535163449184</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09028403781341543</v>
+        <v>-0.09784270678004976</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2752769813873376</v>
       </c>
       <c r="E92" t="n">
-        <v>1.618681811921944</v>
+        <v>1.612332062774582</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.571102772863382</v>
+        <v>-1.605095612515918</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1025849429793212</v>
+        <v>-0.1097610793461375</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2392179915134787</v>
       </c>
       <c r="E93" t="n">
-        <v>1.649469846014936</v>
+        <v>1.643658854613119</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.233014036932563</v>
+        <v>-1.263079347220555</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1310500405596772</v>
+        <v>-0.1386890121713115</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1886776522959233</v>
       </c>
       <c r="E94" t="n">
-        <v>1.602723486288312</v>
+        <v>1.592117696955951</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9842685637806299</v>
+        <v>-1.006357631347988</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1353732429568579</v>
+        <v>-0.142182907252856</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1262714650178751</v>
       </c>
       <c r="E95" t="n">
-        <v>1.596147429686859</v>
+        <v>1.584807236164771</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6862333271277099</v>
+        <v>-0.7025683451687965</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1929838205279333</v>
+        <v>-0.1998548068437496</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05750207715360362</v>
       </c>
       <c r="E96" t="n">
-        <v>1.500688025455157</v>
+        <v>1.484482951694162</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4070239505589667</v>
+        <v>-0.4156177936220554</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2192938871261081</v>
+        <v>-0.2245588205419248</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01058721876378035</v>
       </c>
       <c r="E97" t="n">
-        <v>1.382440190620553</v>
+        <v>1.364134107656739</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2020580194129309</v>
+        <v>-0.2046817258322938</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3237048462031709</v>
+        <v>-0.3301932999191692</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07142074048509196</v>
       </c>
       <c r="E98" t="n">
-        <v>1.309865580165754</v>
+        <v>1.292404865046577</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04036937372951974</v>
+        <v>-0.04063656253015604</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.325351780449716</v>
+        <v>-0.3355312357395314</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1202305893385565</v>
       </c>
       <c r="E99" t="n">
-        <v>1.161118800760158</v>
+        <v>1.140161270463254</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07612786344408534</v>
+        <v>0.07866834712226647</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3377154676835308</v>
+        <v>-0.3480715887923462</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1572466792786838</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9989118380044739</v>
+        <v>0.9739727565636624</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1698512704956965</v>
+        <v>0.1763032230094221</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3762797179087023</v>
+        <v>-0.3867614031533358</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.184012527224174</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8381941243015171</v>
+        <v>0.8075798359313435</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2193819419316832</v>
+        <v>0.2249870665526817</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3400165034748029</v>
+        <v>-0.3521100818117996</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.208084422820916</v>
       </c>
       <c r="E102" t="n">
-        <v>0.734843160138454</v>
+        <v>0.7059356679865526</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2381815211502236</v>
+        <v>0.2430318009082224</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3557470616062532</v>
+        <v>-0.3664798751225231</v>
       </c>
     </row>
   </sheetData>
